--- a/data/trans_dic/P16A12-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Provincia-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1939,7 +1939,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A12-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.0650028087378975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0979909684572897</v>
+        <v>0.09799096845728972</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04031714689515416</v>
@@ -685,7 +685,7 @@
         <v>0.03647049640506961</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07507927492424402</v>
+        <v>0.075079274924244</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04209097572440262</v>
@@ -697,7 +697,7 @@
         <v>0.05086053702048046</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08658536596536719</v>
+        <v>0.0865853659653672</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02331666110541375</v>
+        <v>0.02609483615975591</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03872942663214073</v>
+        <v>0.04134116554588128</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03977931561604352</v>
+        <v>0.04086148605365075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07219577284620621</v>
+        <v>0.0729958511205929</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01983885571645305</v>
+        <v>0.02135811279717545</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03972848759614882</v>
+        <v>0.03983167232488791</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01875983820627687</v>
+        <v>0.01771375001796154</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05449144941259043</v>
+        <v>0.05608707199310572</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02698080922923305</v>
+        <v>0.02857213078475515</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04606272635681427</v>
+        <v>0.04665915452916503</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03417023732179039</v>
+        <v>0.03499464696105582</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07092350686971485</v>
+        <v>0.06967475176467908</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07180428505656809</v>
+        <v>0.07235271260094141</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1019674737534347</v>
+        <v>0.1064337764987894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09884015603385089</v>
+        <v>0.09897153680379074</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1316077093076951</v>
+        <v>0.129328495530043</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06956776325045352</v>
+        <v>0.07677461085428852</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1000550144495824</v>
+        <v>0.09895031870343819</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06423986522708205</v>
+        <v>0.06318264245590462</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09736971334812498</v>
+        <v>0.09678877655102523</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06156016607302973</v>
+        <v>0.06217813360947095</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09021224606191827</v>
+        <v>0.09347381854685269</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07256886117387684</v>
+        <v>0.07514344174691834</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1062193904886886</v>
+        <v>0.1058260187796628</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1036130946771084</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07551819197669218</v>
+        <v>0.07551819197669217</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.06702331008864292</v>
@@ -833,7 +833,7 @@
         <v>0.08621221274728395</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.07061154968057003</v>
+        <v>0.07061154968057001</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0369720017315627</v>
+        <v>0.03752510702597371</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04713525792455453</v>
+        <v>0.04932243148109285</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04784321613845022</v>
+        <v>0.04678316107124995</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04425628206510603</v>
+        <v>0.04548881106309374</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05788666193874012</v>
+        <v>0.05763360899290956</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08377119607087936</v>
+        <v>0.08487720158445844</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0802580463328772</v>
+        <v>0.07727572884367667</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05593432887228792</v>
+        <v>0.05937144595722352</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05210980724594249</v>
+        <v>0.05206500685694084</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07330120116141875</v>
+        <v>0.07257463119291298</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06917675740012709</v>
+        <v>0.07032961934914383</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05694892351387104</v>
+        <v>0.05658289988741791</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08053198992147903</v>
+        <v>0.08037056583906471</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09623466583583032</v>
+        <v>0.0978073110730359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09287432502286824</v>
+        <v>0.09185456114564551</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09009864501329362</v>
+        <v>0.08821779254272491</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1054872943492699</v>
+        <v>0.1065112148309228</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1390306490994478</v>
+        <v>0.1405444068350265</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1308286984189449</v>
+        <v>0.1327275677305811</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09346903799520599</v>
+        <v>0.09626419098813033</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08437959453868214</v>
+        <v>0.08397499617431343</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1108057643467839</v>
+        <v>0.1139234433534857</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1048677537088628</v>
+        <v>0.1047712190910476</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08467098569680771</v>
+        <v>0.08599580562090751</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02782302818685389</v>
+        <v>0.02803994543273973</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07273845542642282</v>
+        <v>0.07080669543328741</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02367533864364057</v>
+        <v>0.02629224070179282</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08564738467760163</v>
+        <v>0.08839681346526303</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04994420314269118</v>
+        <v>0.04897789273444698</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07188028127862368</v>
+        <v>0.07250501641430443</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03840883285183735</v>
+        <v>0.04050435890650739</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08069721758131627</v>
+        <v>0.08076593097619317</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04565840456730529</v>
+        <v>0.04401018065618179</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08020355056478733</v>
+        <v>0.08025513157099037</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03685018397746777</v>
+        <v>0.03816151422457114</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08769181361995684</v>
+        <v>0.08857185320312604</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0727583010137144</v>
+        <v>0.07287492108123099</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1414698043525257</v>
+        <v>0.1426189334499216</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06687995759279008</v>
+        <v>0.07040317965292701</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1426448159307919</v>
+        <v>0.1481628655766462</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1056697479482718</v>
+        <v>0.1093921688543044</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1395208217845901</v>
+        <v>0.1418231193937496</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09594120839513552</v>
+        <v>0.09528407373093152</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1295190466735004</v>
+        <v>0.1289541598699702</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08337609823089508</v>
+        <v>0.08093998894479265</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1310294813771264</v>
+        <v>0.1298966308157168</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07057295177560707</v>
+        <v>0.07219943421319407</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1274901107392318</v>
+        <v>0.1243603276786547</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.123815634844911</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08523157328255146</v>
+        <v>0.08523157328255145</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04709117639296181</v>
@@ -1093,7 +1093,7 @@
         <v>0.0670998360383962</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06452969425335174</v>
+        <v>0.06452969425335175</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04906626048693428</v>
@@ -1105,7 +1105,7 @@
         <v>0.09480916167902489</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07424512990268185</v>
+        <v>0.07424512990268184</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03267981783241097</v>
+        <v>0.03073604993489421</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03619627930568005</v>
+        <v>0.04001224211016457</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08968063792168393</v>
+        <v>0.09346764569597241</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06117996671665791</v>
+        <v>0.05883494481219428</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02954470614911627</v>
+        <v>0.0289402020322919</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05625716641814398</v>
+        <v>0.05833863940991336</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04505500217428045</v>
+        <v>0.04365922349159782</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04875663625053689</v>
+        <v>0.04880956765310961</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03596483382488794</v>
+        <v>0.03546763658325035</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05356962376134806</v>
+        <v>0.05429635893083591</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07427183688831099</v>
+        <v>0.07460405990964386</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06014800504830915</v>
+        <v>0.05998063605691582</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07846566558066022</v>
+        <v>0.07564941314613867</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08710196737191041</v>
+        <v>0.08648240703417036</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.160168864168327</v>
+        <v>0.1578140985929748</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1195101042092598</v>
+        <v>0.1157695407264259</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0715835871658022</v>
+        <v>0.07247120513466671</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1142636975317366</v>
+        <v>0.1132371451450346</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09492155621641025</v>
+        <v>0.09657424568928688</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08150131440844374</v>
+        <v>0.0827301255328256</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06588561191970026</v>
+        <v>0.06565692551130896</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09029463267248561</v>
+        <v>0.09071376645850063</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1175024079551175</v>
+        <v>0.1174073637319536</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09252991336773451</v>
+        <v>0.09205799032127707</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02564014096331822</v>
+        <v>0.0255035997701421</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05116252494745126</v>
+        <v>0.05432009998378404</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0372724956115619</v>
+        <v>0.03455066486941842</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06533161506704944</v>
+        <v>0.06805123427257194</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05382066750235768</v>
+        <v>0.05453209327184475</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07881599728158881</v>
+        <v>0.07930343752758917</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06051257797613074</v>
+        <v>0.0576297705791842</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0904211821410304</v>
+        <v>0.09147961697011779</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04587578436586464</v>
+        <v>0.04846744452494823</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07678171762567972</v>
+        <v>0.07759891394269641</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05482933889897867</v>
+        <v>0.05670267780527825</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08716326422106838</v>
+        <v>0.08518209405084406</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08054431676823783</v>
+        <v>0.08205818323926352</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1339397220229437</v>
+        <v>0.1359995988331983</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.101874805055864</v>
+        <v>0.0993240422456461</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1267607334263162</v>
+        <v>0.1293400718195835</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1360247110946474</v>
+        <v>0.137664070984304</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1681151122129732</v>
+        <v>0.1672391353743602</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.139393249807592</v>
+        <v>0.1380459245162986</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1430784452631195</v>
+        <v>0.1420345785497122</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0973609850090186</v>
+        <v>0.09721850706424025</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1346014917800161</v>
+        <v>0.134835040355056</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1090812784765102</v>
+        <v>0.1086955137820608</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1278959535220732</v>
+        <v>0.1258474100991114</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.06724687617682884</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1051270287988446</v>
+        <v>0.1051270287988445</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.04523192526808292</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0326651255743969</v>
+        <v>0.02906352071778602</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04236701226631515</v>
+        <v>0.04261677641520421</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04049913740788059</v>
+        <v>0.03983141293708863</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1136769787605341</v>
+        <v>0.1141143546695136</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01558442484194923</v>
+        <v>0.01451542594917432</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07247882173946982</v>
+        <v>0.07412822479352163</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04037689477071808</v>
+        <v>0.04279493122340468</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08233460303785151</v>
+        <v>0.08167202054144232</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03029342696988049</v>
+        <v>0.03032995508184199</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06346633636259061</v>
+        <v>0.06669037135279228</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04603047760552156</v>
+        <v>0.04648539605507183</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1047998675909638</v>
+        <v>0.1041093717958915</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09344921356804074</v>
+        <v>0.08717607594427655</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1015448964417092</v>
+        <v>0.1037137620970035</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09744477199079254</v>
+        <v>0.1016585568226301</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1789918261024078</v>
+        <v>0.1814305163326097</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06253713506048467</v>
+        <v>0.06049301382074652</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1458084209577445</v>
+        <v>0.1476871476237578</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1045852807404166</v>
+        <v>0.1077150274072838</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1343962301356249</v>
+        <v>0.1343222801113678</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06607360515410145</v>
+        <v>0.0666093698452636</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1113419654939736</v>
+        <v>0.1140621492264341</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.08937135451144232</v>
+        <v>0.08915582916765331</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1475774321667442</v>
+        <v>0.1455094351353934</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.09316536465726417</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07152146585068583</v>
+        <v>0.07152146585068585</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05047058602936928</v>
+        <v>0.05061271777746552</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06175996959454717</v>
+        <v>0.05934501514082254</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0849099059893354</v>
+        <v>0.08700937608510784</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06867756606778483</v>
+        <v>0.06710088097109995</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04493403297638456</v>
+        <v>0.04782200376153105</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0618567503213945</v>
+        <v>0.06277484244736241</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05680833327398051</v>
+        <v>0.05638368634392323</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04377186187694656</v>
+        <v>0.04420138546895699</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05305519871093952</v>
+        <v>0.05377441027272819</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06740218503094025</v>
+        <v>0.06802969125150708</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07890687948390893</v>
+        <v>0.07748076098853697</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06025569715071073</v>
+        <v>0.06082829501305386</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09093941372824897</v>
+        <v>0.08740821336219839</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1069738499652321</v>
+        <v>0.1049586208842143</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1351593888552911</v>
+        <v>0.1364944640727269</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1092187092807033</v>
+        <v>0.1076101959448644</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08344743879166476</v>
+        <v>0.08452630499070214</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1039641630729066</v>
+        <v>0.1078801064868848</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1040565930711984</v>
+        <v>0.1027950318827212</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.07122837846378671</v>
+        <v>0.0722075785867467</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08135449944016804</v>
+        <v>0.08108727832820281</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.09881528425031134</v>
+        <v>0.09993719082349768</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1106797373675034</v>
+        <v>0.1119967443562735</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08549916428729663</v>
+        <v>0.0844233086099206</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.08805215205866959</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0607201020733329</v>
+        <v>0.06072010207333291</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.05743195388196073</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04286907816944207</v>
+        <v>0.04363424854479314</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04555322562877188</v>
+        <v>0.04673015275682203</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0698488792994381</v>
+        <v>0.07215631950509123</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05170180670672534</v>
+        <v>0.05308099604148704</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03957622223399306</v>
+        <v>0.04022436077040723</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03957589397704315</v>
+        <v>0.04085558813342469</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06786868535005069</v>
+        <v>0.06761502856717459</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0480749578051673</v>
+        <v>0.04749427386750518</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04627422864145495</v>
+        <v>0.0464264960808944</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04690247815768705</v>
+        <v>0.0476652600946778</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07391457275795883</v>
+        <v>0.07424347028039867</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05311630751866436</v>
+        <v>0.05435080052436028</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07650017441026859</v>
+        <v>0.07751851518423657</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08493081460216709</v>
+        <v>0.08325203944340011</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1120205992492721</v>
+        <v>0.11088574154871</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.08279951702695207</v>
+        <v>0.08434514590612072</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07467782626479479</v>
+        <v>0.07451155513452068</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.07264342070602003</v>
+        <v>0.07388588869489464</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1116244087466947</v>
+        <v>0.1127586166215174</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07514938900238922</v>
+        <v>0.07493416731437165</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.07105280436868057</v>
+        <v>0.07077394213119498</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.07088464534180212</v>
+        <v>0.07206401116081249</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1047042050314745</v>
+        <v>0.1040076931613344</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.07334732073330738</v>
+        <v>0.07435214069473897</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.08095670698434509</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.08030962241378704</v>
+        <v>0.08030962241378706</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.04917020154681201</v>
+        <v>0.0480170571116687</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.06336607398399374</v>
+        <v>0.0638707004419605</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0749474501917021</v>
+        <v>0.07319576833460832</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.07840518520783492</v>
+        <v>0.07847424368235967</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05309977319538539</v>
+        <v>0.05334482818254589</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.07590954776220786</v>
+        <v>0.07601294083900072</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06843611052221663</v>
+        <v>0.06903631487112906</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.06773440672826786</v>
+        <v>0.06838473994997088</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.05226630388757596</v>
+        <v>0.0528653090353768</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.07230410076287572</v>
+        <v>0.0723479820321806</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.07432147579491016</v>
+        <v>0.07400058334447875</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.07514986108513251</v>
+        <v>0.07491228852290376</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06435310264065641</v>
+        <v>0.06438621055171387</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.08326024461877378</v>
+        <v>0.08244612200288264</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.0930518462122866</v>
+        <v>0.09290062123889188</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.09601834333111516</v>
+        <v>0.0955422645158346</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.06913202554855588</v>
+        <v>0.06898246061008288</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.09376575404170655</v>
+        <v>0.09487377675308131</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.08818656848614737</v>
+        <v>0.0878843147963445</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.08052817994761208</v>
+        <v>0.08143849030585887</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.06383733091707244</v>
+        <v>0.06407449286721129</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.08596331956708025</v>
+        <v>0.08590365769011724</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.0880884540616873</v>
+        <v>0.08819571754417484</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.08606286569180459</v>
+        <v>0.08566699467729803</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6366</v>
+        <v>7124</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11317</v>
+        <v>12080</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11686</v>
+        <v>12004</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>23019</v>
+        <v>23274</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5175</v>
+        <v>5571</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11175</v>
+        <v>11204</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5416</v>
+        <v>5114</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17223</v>
+        <v>17727</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>14404</v>
+        <v>15253</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>26416</v>
+        <v>26758</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>19903</v>
+        <v>20383</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>45030</v>
+        <v>44237</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19603</v>
+        <v>19753</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29794</v>
+        <v>31099</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29035</v>
+        <v>29074</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>41962</v>
+        <v>41236</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18146</v>
+        <v>20026</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28143</v>
+        <v>27833</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18546</v>
+        <v>18241</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30775</v>
+        <v>30591</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>32864</v>
+        <v>33194</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>51734</v>
+        <v>53605</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>42269</v>
+        <v>43768</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>67439</v>
+        <v>67190</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18230</v>
+        <v>18503</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23828</v>
+        <v>24934</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>24045</v>
+        <v>23512</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23441</v>
+        <v>24094</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>29172</v>
+        <v>29044</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>43790</v>
+        <v>44368</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>41982</v>
+        <v>40422</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>30496</v>
+        <v>32370</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>51955</v>
+        <v>51910</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>75373</v>
+        <v>74625</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>70952</v>
+        <v>72134</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>61213</v>
+        <v>60819</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39708</v>
+        <v>39629</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>48649</v>
+        <v>49444</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>46676</v>
+        <v>46164</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>47722</v>
+        <v>46725</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>53160</v>
+        <v>53676</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>72676</v>
+        <v>73467</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>68434</v>
+        <v>69428</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>50961</v>
+        <v>52484</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>84128</v>
+        <v>83725</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>113937</v>
+        <v>117143</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>107559</v>
+        <v>107460</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>91011</v>
+        <v>92435</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8871</v>
+        <v>8940</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23503</v>
+        <v>22879</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7542</v>
+        <v>8376</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>27064</v>
+        <v>27933</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>16752</v>
+        <v>16428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24513</v>
+        <v>24726</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12917</v>
+        <v>13622</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>28759</v>
+        <v>28783</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>29872</v>
+        <v>28794</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>53266</v>
+        <v>53300</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>24132</v>
+        <v>24991</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>58962</v>
+        <v>59553</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23199</v>
+        <v>23236</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45711</v>
+        <v>46082</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21306</v>
+        <v>22428</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>45075</v>
+        <v>46818</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>35443</v>
+        <v>36691</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>47579</v>
+        <v>48365</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>32266</v>
+        <v>32045</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>46158</v>
+        <v>45957</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>54549</v>
+        <v>52956</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>87021</v>
+        <v>86269</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>46216</v>
+        <v>47282</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>85721</v>
+        <v>83617</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11721</v>
+        <v>11024</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13537</v>
+        <v>14964</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>33179</v>
+        <v>34580</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22829</v>
+        <v>21954</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10975</v>
+        <v>10750</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>21826</v>
+        <v>22634</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17449</v>
+        <v>16908</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20573</v>
+        <v>20596</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>26259</v>
+        <v>25896</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>40818</v>
+        <v>41371</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>56242</v>
+        <v>56494</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>47824</v>
+        <v>47691</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>28143</v>
+        <v>27133</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32575</v>
+        <v>32343</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>59257</v>
+        <v>58386</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>44595</v>
+        <v>43199</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26590</v>
+        <v>26920</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>44331</v>
+        <v>43933</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>36762</v>
+        <v>37402</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>34390</v>
+        <v>34909</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>48105</v>
+        <v>47938</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>68801</v>
+        <v>69120</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>88978</v>
+        <v>88906</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>73571</v>
+        <v>73196</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5213</v>
+        <v>5185</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10878</v>
+        <v>11549</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7873</v>
+        <v>7298</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13436</v>
+        <v>13996</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11177</v>
+        <v>11325</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>17307</v>
+        <v>17414</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13227</v>
+        <v>12597</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>20545</v>
+        <v>20786</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>18854</v>
+        <v>19919</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>33186</v>
+        <v>33539</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>23566</v>
+        <v>24371</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>37731</v>
+        <v>36874</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16375</v>
+        <v>16683</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28478</v>
+        <v>28916</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21518</v>
+        <v>20979</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>26070</v>
+        <v>26601</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28248</v>
+        <v>28588</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>36917</v>
+        <v>36724</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>30470</v>
+        <v>30175</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>32510</v>
+        <v>32272</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>40013</v>
+        <v>39954</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>58176</v>
+        <v>58277</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>46884</v>
+        <v>46718</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>55363</v>
+        <v>54477</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>8846</v>
+        <v>7871</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>11608</v>
+        <v>11676</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>10656</v>
+        <v>10481</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>30773</v>
+        <v>30892</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4335</v>
+        <v>4037</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>20232</v>
+        <v>20692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>11028</v>
+        <v>11688</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>21716</v>
+        <v>21541</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>16630</v>
+        <v>16650</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>35105</v>
+        <v>36888</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>24683</v>
+        <v>24927</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>56011</v>
+        <v>55642</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>25307</v>
+        <v>23608</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>27821</v>
+        <v>28416</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>25640</v>
+        <v>26749</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>48454</v>
+        <v>49115</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17394</v>
+        <v>16826</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>40701</v>
+        <v>41225</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>28564</v>
+        <v>29419</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>35447</v>
+        <v>35428</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>36271</v>
+        <v>36566</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>61586</v>
+        <v>63090</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>47924</v>
+        <v>47809</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>78874</v>
+        <v>77769</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>31041</v>
+        <v>31128</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>40934</v>
+        <v>39333</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>55748</v>
+        <v>57127</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>49426</v>
+        <v>48292</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>28678</v>
+        <v>30521</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>42919</v>
+        <v>43557</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>39271</v>
+        <v>38978</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>33794</v>
+        <v>34126</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>66491</v>
+        <v>67393</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>91441</v>
+        <v>92292</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>106355</v>
+        <v>104433</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>89886</v>
+        <v>90740</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>55930</v>
+        <v>53758</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>70901</v>
+        <v>69565</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>88740</v>
+        <v>89617</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>78603</v>
+        <v>77446</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>53258</v>
+        <v>53946</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>72136</v>
+        <v>74853</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>71934</v>
+        <v>71062</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>54992</v>
+        <v>55748</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>101957</v>
+        <v>101622</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>134057</v>
+        <v>135579</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>149180</v>
+        <v>150955</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>127543</v>
+        <v>125938</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>31842</v>
+        <v>32411</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>35394</v>
+        <v>36308</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>54383</v>
+        <v>56180</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>41262</v>
+        <v>42362</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>31008</v>
+        <v>31516</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>32512</v>
+        <v>33564</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>56071</v>
+        <v>55861</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>39903</v>
+        <v>39421</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>70628</v>
+        <v>70860</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>74973</v>
+        <v>76193</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>118614</v>
+        <v>119142</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>86477</v>
+        <v>88487</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>56823</v>
+        <v>57579</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>65989</v>
+        <v>64685</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>87217</v>
+        <v>86334</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>66080</v>
+        <v>67313</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>58511</v>
+        <v>58381</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>59678</v>
+        <v>60699</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>92220</v>
+        <v>93157</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>62374</v>
+        <v>62196</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>108447</v>
+        <v>108021</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>113309</v>
+        <v>115194</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>168024</v>
+        <v>166906</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>119415</v>
+        <v>121051</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>161058</v>
+        <v>157281</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>216787</v>
+        <v>218513</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>254398</v>
+        <v>248452</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>276909</v>
+        <v>277153</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>179435</v>
+        <v>180263</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>269260</v>
+        <v>269626</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>242575</v>
+        <v>244702</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>252828</v>
+        <v>255256</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>347818</v>
+        <v>351804</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>503836</v>
+        <v>504142</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>515709</v>
+        <v>513482</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>545920</v>
+        <v>544194</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>210790</v>
+        <v>210899</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>284848</v>
+        <v>282063</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>315851</v>
+        <v>315337</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>339115</v>
+        <v>337434</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>233611</v>
+        <v>233105</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>332597</v>
+        <v>336528</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>312581</v>
+        <v>311510</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>300583</v>
+        <v>303981</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>424820</v>
+        <v>426398</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>599017</v>
+        <v>598602</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>611236</v>
+        <v>611981</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>625197</v>
+        <v>622321</v>
       </c>
     </row>
     <row r="40">
